--- a/trunk/6. Test/AS_TE_SystemTest_Eng.xlsx
+++ b/trunk/6. Test/AS_TE_SystemTest_Eng.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="326">
   <si>
     <t>TC ID</t>
   </si>
@@ -34,36 +34,6 @@
   </si>
   <si>
     <t>Related</t>
-  </si>
-  <si>
-    <t>Tìm kiếm trên công cụ quản trị bộ từ điển</t>
-  </si>
-  <si>
-    <t>1. Chọn khung tìm kiếm
-2. Nhập dữ liệu 'tuyển sinh'
-3. Xác nhận tìm kiếm</t>
-  </si>
-  <si>
-    <t>Danh sách hiển thị 2 câu hỏi có nội dung và tiêu đề tương ứng với từ khóa tìm kiếm
-Hiển thị thông báo không tìm thấy dữ liệu tương ứng với từ khóa</t>
-  </si>
-  <si>
-    <t>Xem nội dung câu hỏi</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách cần xem
-2. Chọn một câu hỏi
-3. Kiểm tra thông tin</t>
-  </si>
-  <si>
-    <t>Thông tin chi tiết của câu hỏi kèm theo khung biên soạn câu trả lời được chọn được hiển thị trên giao diện. Thông tin bao gồm:
- - Tiêu đề
- - Ngày gởi
- - Nội dung
- - Địa chỉ email người gởi</t>
-  </si>
-  <si>
-    <t>Đưa vào từ điển</t>
   </si>
   <si>
     <t>Pre-conditions: Người dùng đã đăng nhập vào trang web. 
@@ -74,12 +44,6 @@
   </si>
   <si>
     <t>Nhận câu hỏi từ công cụ hiển thị</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách câu hỏi</t>
-  </si>
-  <si>
-    <t>Tìm kiếm câu hỏi trên công cụ hiển thị</t>
   </si>
   <si>
     <t>Xem chi tiết câu hỏi</t>
@@ -102,22 +66,6 @@
  - Người trả lời</t>
   </si>
   <si>
-    <t>1. Chọn tạo câu hỏi
-2. Điền thông tin tiêu đề
-3. Điền thông tin câu hỏi
-4. Điền thông tin câu trả lời
-5. Chọn Lưu</t>
-  </si>
-  <si>
-    <t>Thông tin câu hỏi và câu trả lời được lưu vào cơ sở dữ liệu. Danh sách có sẵn của bộ từ điển được cập nhật</t>
-  </si>
-  <si>
-    <t>Cập nhật bộ từ điển</t>
-  </si>
-  <si>
-    <t>Các trạng thái trong bộ từ điển</t>
-  </si>
-  <si>
     <t>Document Reviewer Information</t>
   </si>
   <si>
@@ -160,209 +108,12 @@
     <t>Revised by</t>
   </si>
   <si>
-    <t>Đang nhập ứng dụng quản trị bộ từ điển</t>
-  </si>
-  <si>
-    <t>Hiển thị ứng dụng</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách câu hỏi chưa trả lời
-2. Kiểm tra thông tin câu hỏi
-3. Chọn danh sách câu hỏi lưu tạm
-4. Kiểm tra thông tin câu hỏi
-5. Chọn danh sách câu hỏi đã trả lời
-6. Kiểm tra thông tin câu hỏi
-7. Chọn danh sách câu hỏi đã xóa
-8. Kiểm tra thông tin câu hỏi</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách câu hỏi theo sự lựa chọn của người dùng</t>
-  </si>
-  <si>
-    <t>Gửi câu trả lời</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách câu hỏi chưa trả lời
-2. Chọn câu hỏi cần trả lời
-3. Biên soạn câu trả lời
-4. Xác nhận gởi</t>
-  </si>
-  <si>
-    <t>Câu trả lời được gởi vào mail của người gởi
-Hiển thị thông báo gởi câu trả lời thành công</t>
-  </si>
-  <si>
-    <t>Lưu câu trả lời</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách câu hỏi chưa trả lời
-2. Chọn câu hỏi cần trả lời
-3. Biên soạn câu trả lời
-4. Xác nhận lưu câu trả lời</t>
-  </si>
-  <si>
-    <t>Câu hỏi được chuyển vào danh sách lưu tạm
-Hiển thị thông báo lưu tạm câu trả lời thành công</t>
-  </si>
-  <si>
-    <t>Bộ từ điển</t>
-  </si>
-  <si>
-    <t>1. Chọn bộ từ điển
-2. Chọn danh sách có sẵn
-3. Kiểm tra thông tin
-4. Chọn danh sách hiện tại
-5. Kiểm tra thông tin
-6. Chọn danh sách đã hạ
-7. Kiểm tra thông tin
-8. Chọn danh sách đã xóa
-9. Kiểm tra thông tin</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách của bộ từ điển theo sự lựa chọn của người dùng</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách câu hỏi đã trả lời
-2. Chọn câu hỏi
-3. Xác nhận đưa vào từ điển</t>
-  </si>
-  <si>
-    <t>Câu hỏi được đưa vào danh sách có sẵn của bộ từ điển
-Hiển thị thông báo đưa câu hỏi vào bộ từ điển thành công</t>
-  </si>
-  <si>
-    <t>Loại khỏi từ điển</t>
-  </si>
-  <si>
-    <t>1. Chọn bộ từ điển
-2. Chọn danh sách có sẵn
-3. Chọn câu hỏi
-4. Xác nhận loại khỏi bộ từ điển</t>
-  </si>
-  <si>
-    <t>Câu hỏi được đưa vào danh sách đã hạ của bộ từ điển
-Hiển thị thông báo loại câu hỏi thành công</t>
-  </si>
-  <si>
-    <t>Xóa câu hỏi</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách câu hỏi đã trả lời
-2. Chọn câu hỏi
-3. Xác nhận xóa câu hỏi</t>
-  </si>
-  <si>
-    <t>Câu hỏi được chuyển vào danh sách đã xóa
-Hiển thị thông báo xóa câu hỏi thành công</t>
-  </si>
-  <si>
-    <t>Khôi phục câu hỏi</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách câu hỏi đã xóa
-2. Chọn câu hỏi
-3. Xác nhận khôi phục câu hỏi</t>
-  </si>
-  <si>
-    <t>Câu hỏi được chuyển về danh sách trước đó
-Hiển thị thông báo khôi phục câu hỏi thành công</t>
-  </si>
-  <si>
-    <t>Xử lí song song hai tài khoản quyền user - user cùng thực hiện gửi câu trả lời</t>
-  </si>
-  <si>
     <t>Hiển thị giao diện đăng nhập</t>
   </si>
   <si>
-    <t>Tài khoản: user1
-Mật khẩu: 123456
-Quyền: user (0)</t>
-  </si>
-  <si>
-    <t>2. Đăng nhập</t>
-  </si>
-  <si>
-    <t>Hiển thị giao diện chính.
-Mặc định mở danh sách câu hỏi chưa trả lời</t>
-  </si>
-  <si>
-    <t>Hiển thị chi tiết câu hỏi kèm theo công cụ biên soạn câu trả lời</t>
-  </si>
-  <si>
-    <t>Tài khoản: user2
-Mật khẩu: 123456
-Quyền: user (0)</t>
-  </si>
-  <si>
-    <t>5. Đăng nhập</t>
-  </si>
-  <si>
-    <t>Tài khoản user2</t>
-  </si>
-  <si>
-    <t>7. Biên soạn câu trả lời</t>
-  </si>
-  <si>
-    <t>Tài khoản user1</t>
-  </si>
-  <si>
-    <t>Xử lí song song hai tài khoản quyền user - admin cùng thực hiện lưu câu hỏi</t>
-  </si>
-  <si>
-    <t>Tài khoản: admin1
-Mật khẩu: 123456
-Quyền: admin (1)</t>
-  </si>
-  <si>
-    <t>Tài khoản admin1</t>
-  </si>
-  <si>
-    <t>Câu trả lời được lưu vào cơ sở dữ liệu.
-Câu hỏi được chuyển vào danh sách lưu tạm.
-Hiển thị thông báo lưu thành công</t>
-  </si>
-  <si>
-    <t>Xử lí song song hai tài khoản quyền admin - user cùng thực hiện lưu câu hỏi</t>
-  </si>
-  <si>
-    <t>Xử lí song song hai tài khoản quyền admin - admin cùng thực hiện đăng câu hỏi</t>
-  </si>
-  <si>
-    <t>3. Chọn bộ từ điển</t>
-  </si>
-  <si>
-    <t>Hiển thị giao diện bộ từ điển.
-Mặc định mở danh sách có sẵn</t>
-  </si>
-  <si>
-    <t>Tài khoản: admin2
-Mật khẩu: 123456
-Quyền: admin (1)</t>
-  </si>
-  <si>
-    <t>6. Đăng nhập</t>
-  </si>
-  <si>
-    <t>7. Chọn bộ từ điển</t>
-  </si>
-  <si>
-    <t>9. Chọn Đăng câu hỏi</t>
-  </si>
-  <si>
-    <t>Câu hỏi được chuyển qua danh sách đã đăng.
-Hiển thị câu hỏi lên công cụ hiển thị.
-Hiển thị thông báo đăng câu hỏi thành công</t>
-  </si>
-  <si>
-    <t>Tạo câu hỏi trên công cụ quản trị bộ từ điển</t>
-  </si>
-  <si>
     <t>Đưa vào từ điển (dictionary)</t>
   </si>
   <si>
-    <t>Hiển thị danh sách câu hỏi công cụ hiển thị</t>
-  </si>
-  <si>
     <t>SYS.ST.02</t>
   </si>
   <si>
@@ -463,18 +214,6 @@
   </si>
   <si>
     <t>SYS.ST.35</t>
-  </si>
-  <si>
-    <t>Người dùng không tìm thấy câu hỏi cần tìm trên công cụ hiển thị</t>
-  </si>
-  <si>
-    <t>1. Chọn tạo câu hỏi
-2. Điền thông tin tiêu đề
-3. Điền thông tin câu hỏi
-4. Chọn Gửi</t>
-  </si>
-  <si>
-    <t>Thông tin câu hỏi  được lưu vào cơ sở dữ liệu. Danh sách câu hỏi chưa trả lời được cập nhật</t>
   </si>
   <si>
     <t>Pre-conditions: Người dùng đã đăng nhập vào trang web. 
@@ -512,62 +251,7 @@
 6. Tìm kiếm câu hỏi vừa gửi trong danh sách câu hỏi chưa trả lời</t>
   </si>
   <si>
-    <t>Trong danh sách bộ từ điển có sẵn 10 records</t>
-  </si>
-  <si>
-    <t>Danh sách câu hỏi được hiển thị với 10 records</t>
-  </si>
-  <si>
-    <t>1. Mở công cụ hiển thị.</t>
-  </si>
-  <si>
-    <t>1. Mở công cụ hiển thị.
-2. Đăng câu hỏi vào danh sách đã đăng trên công cụ quản trị.
-3. Refresh trang hiển thị</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Câu hỏi vừa đăng được cập nhật trên trang hiển thị</t>
-  </si>
-  <si>
-    <t>1. Mở bộ từ điển
-2. Chọn từng danh sách : có sẵn,đã đăng,đã hạ,đã xóa</t>
-  </si>
-  <si>
-    <t>Danh sách câu hỏi trong từng danh sách được hiển thị</t>
-  </si>
-  <si>
-    <t>Tài khoản đã đăng nhập vào app
-Trong cơ sở dữ liệu có 40 records ở mỗi danh sách: danh sách câu hỏi chưa trả lời, danh sách câu hỏi lưu tạm, danh sách câu hỏi đã trả lời, danh sách câu hỏi đã xóa</t>
-  </si>
-  <si>
     <t>SYS.ST-A.01</t>
-  </si>
-  <si>
-    <t>Tài khoản đã đăng nhập vào app
-Câu hỏi được lưu trong danh sách chưa trả lời</t>
-  </si>
-  <si>
-    <t>Tài khoản đã đăng nhập vào app
-Trong cơ sở dữ liệu có 40 records ở mỗi danh sách: danh sách có sẵn, danh sách hiện tại, danh sách đã hạ, danh sách đã xóa</t>
-  </si>
-  <si>
-    <t>Tài khoản đã đăng nhập vào app
-Trong cơ sở dữ liệu có 20 records ở mỗi danh sách: danh sách câu hỏi đã trả lời, danh sách câu hỏi lưu tạm, danh sách câu hỏi đã trả lời</t>
-  </si>
-  <si>
-    <t>Tài khoản đã đăng nhập vào app
-Trong cơ sở dữ liệu có 20 records ở danh sách câu hỏi đã xóa</t>
-  </si>
-  <si>
-    <t>Tạo câu hỏi trên công cụ hiển thị bộ từ điển Android app</t>
-  </si>
-  <si>
-    <t>Người dùng đã đăng nhập vào app. 
-Trong cơ sở dữ liệu có sẵn 2 câu hỏi, 1 câu nội dung có từ 'tuyển sinh', 1 câu tiêu đề có từ 'tuyển sinh'</t>
-  </si>
-  <si>
-    <t>Người dùng đã đăng nhập vào app. 
-Trong cơ sở dữ liệu có sẵn câu hỏi ở danh sách câu hỏi chưa trả lời, danh sách câu hỏi lưu tạm, danh sách câu hỏi đã trả lời, danh sách câu hỏi đã xóa</t>
   </si>
   <si>
     <t>Pre-conditions: Người dùng đã đăng nhập vào app. 
@@ -585,33 +269,6 @@
 Trong cơ sở dữ liệu có sẵn câu hỏi ở danh sách câu hỏi chưa trả lời, danh sách câu hỏi lưu tạm, danh sách câu hỏi đã trả lời, danh sách câu hỏi đã xóa</t>
   </si>
   <si>
-    <t>1. Mở app
-2. Đăng nhập với tài khoản đã tồn tại trong cơ sở dữ liệu</t>
-  </si>
-  <si>
-    <t>Tài khoản đã đăng nhập vào app
-Trong cơ sở dữ liệu có 20 records ở danh sách câu hỏi đã trả lời</t>
-  </si>
-  <si>
-    <t>Tài khoản đã đăng nhập vào app
-Trong cơ sở dữ liệu có 20 records ở mỗi danh sách của bộ từ điển: danh sách có sẵn, danh sách hiện tại, danh sách đã hạ, danh sách đã xóa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người dùng đã đăng nhập vào app. </t>
-  </si>
-  <si>
-    <t>Dùng android device # 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mở app công cụ quản trị</t>
-  </si>
-  <si>
-    <t>Dùng android device # 2</t>
-  </si>
-  <si>
-    <t>Mở app công cụ quản trị</t>
-  </si>
-  <si>
     <t>Nguyễn Phan Xuân Huy</t>
   </si>
   <si>
@@ -699,122 +356,19 @@
     <t>Hiển thị thông báo câu hỏi đang được trả lời bởi user 1.</t>
   </si>
   <si>
-    <t>8. Chọn Gửi</t>
-  </si>
-  <si>
-    <t>Câu trả lời được lưu vào cơ sở dữ liệu.
-Câu trả lời được gửi đến người đặt câu hỏi.
-Câu hỏi được chuyển vào danh sách đã trả lời
-Hiển thị thông báo gửi thành công.</t>
-  </si>
-  <si>
-    <t>10. Chọn Danh sách đã trả lời</t>
-  </si>
-  <si>
-    <t>Không tìm thấy câu hỏi 1</t>
-  </si>
-  <si>
-    <t>3. Chọn câu hỏi 1 từ danh sách chưa trả lời</t>
-  </si>
-  <si>
-    <t>6. Chọn câu hỏi 1 từ danh sách chưa trả lời</t>
-  </si>
-  <si>
     <t>Hiển thị thông báo câu hỏi đang được trả lời bởi admin1.</t>
-  </si>
-  <si>
-    <t>8. Chọn Lưu</t>
-  </si>
-  <si>
-    <t>Câu trả lời được lưu vào cơ sở dữ liệu.
-Câu trả lời được lưu vào danh sách đã lưu.
-Hiển thị thông báo lưu thành công</t>
-  </si>
-  <si>
-    <t>9. Chọn Danh sách lưu tạm
-10. Tìm câu hỏi #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Tài khoản: admin1
-Mật khẩu: 123456
-Quyền: admin (1)</t>
   </si>
   <si>
     <t xml:space="preserve">
 Hiển thị thông báo câu hỏi đang được trả lời bởi user2.</t>
   </si>
   <si>
-    <t>11. Biên soạn câu trả lời.
-12. Chọn Lưu</t>
-  </si>
-  <si>
-    <t>13. Chọn Danh sách lưu tạm
-14. Tìm câu hỏi #1</t>
-  </si>
-  <si>
-    <t>4. Chọn câu hỏi 1 từ danh sách có sẵn</t>
-  </si>
-  <si>
-    <t>8. Chọn câu hỏi 1 từ danh sách có sẵn</t>
-  </si>
-  <si>
-    <t>Tài khoản: admin1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tài khoản: admin1
-</t>
-  </si>
-  <si>
-    <t>10. Chọn Danh sách đã đăng.
-11. Tìm câu hỏi 1</t>
-  </si>
-  <si>
-    <t>Trả ra câu hỏi 1 cần tìm</t>
-  </si>
-  <si>
-    <t>Hiển thị chi tiết câu hỏi kèm theo chức năng được phân quyền</t>
-  </si>
-  <si>
-    <t>Hiển thị chi tiết câu hỏi kèm theo chức năng "chỉnh sửa".</t>
-  </si>
-  <si>
-    <t>5. Chọn câu hỏi 1 từ danh sách đã đăng</t>
-  </si>
-  <si>
-    <t>Hiển thị chi tiết câu hỏi</t>
-  </si>
-  <si>
-    <t>6. Chọn câu hỏi 1 từ danh sách đã hạ</t>
-  </si>
-  <si>
-    <t>7. Chọn câu hỏi 1 từ danh sách đã xóa</t>
-  </si>
-  <si>
     <t>SYS.ST-A.26</t>
   </si>
   <si>
-    <t xml:space="preserve"> Xử lí phân quyền user</t>
-  </si>
-  <si>
     <t>SYS.ST-A.27</t>
   </si>
   <si>
-    <t xml:space="preserve"> Xử lí phân quyền admin</t>
-  </si>
-  <si>
-    <t>Hiển thị chi tiết câu hỏi kèm theo chức năng "chỉnh sửa" ,"xóa","đăng".</t>
-  </si>
-  <si>
-    <t>Hiển thị chi tiết câu hỏi kèm theo chức năng  "hạ câu hỏi"</t>
-  </si>
-  <si>
-    <t>Hiển thị chi tiết câu hỏi kèm theo chức năng "chỉnh sửa","đăng","xóa"</t>
-  </si>
-  <si>
-    <t>Hiển thị chi tiết câu hỏi kèm theo chức năng "khôi phục"</t>
-  </si>
-  <si>
     <t>SYS.ST.36</t>
   </si>
   <si>
@@ -830,43 +384,13 @@
     <t>SYS.ST.40</t>
   </si>
   <si>
-    <t>Kiểm tra kết nối mạng</t>
-  </si>
-  <si>
-    <t>Hiển thị giao diện danh sách câu hỏi</t>
-  </si>
-  <si>
-    <t>1.Mở app công cụ quản trị</t>
-  </si>
-  <si>
-    <t>2.Ngắt kết nối mạng trên android device #1</t>
-  </si>
-  <si>
-    <t>Mở trang setting mạng cho android device #1</t>
-  </si>
-  <si>
     <t>SYS.ST-A.28</t>
   </si>
   <si>
-    <t>Project: Admission system - DeadlineTeam - GV hướng dẫn: GV Bùi Minh Phụng</t>
-  </si>
-  <si>
-    <t>Project Test lead: Nguyễn Phan Xuân Huy</t>
-  </si>
-  <si>
     <t>System test (website)</t>
   </si>
   <si>
     <t>System test (android)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hiển thị thông báo mất kết nối mạng. Xuất hiện cửa sổ thông báo có muốn kết nối mạng "có" và "không".</t>
-  </si>
-  <si>
-    <t>3.Chọn "Không"</t>
-  </si>
-  <si>
-    <t>4.Chọn "Có"</t>
   </si>
   <si>
     <t>Project Test lead: Huy Nguyen</t>
@@ -925,31 +449,10 @@
     <t>Restore the question</t>
   </si>
   <si>
-    <t>Create the question in Display Dictionary Tool</t>
-  </si>
-  <si>
     <t>Display the questions list</t>
   </si>
   <si>
-    <t>Account login to web page
-Database have 40 records in each list: the unanswered questions list, the saved questions list, the answered questions list, the deleted questions list</t>
-  </si>
-  <si>
-    <t>1. Choose the unanswered questions list
-2. Check question's info
-3. Choose the saved questions list
-4. Check question's info
-5. Choose the answered questions list
-6. Check question's info
-7. Choose the deleted questions list
-8. Check question's info</t>
-  </si>
-  <si>
     <t>Create index</t>
-  </si>
-  <si>
-    <t>Account login to web page
-Question is saved at the unanswered questions list</t>
   </si>
   <si>
     <t>The answer is sent to the sender
@@ -960,16 +463,6 @@
   </si>
   <si>
     <t>Displays a list of questions according to the user's choice</t>
-  </si>
-  <si>
-    <t>The question is moved to the saved questions list
-Displays the successful notification</t>
-  </si>
-  <si>
-    <t>1. Choose the saved questions list
-2. Choose the question
-3. Edit the answer
-4. Confirm save</t>
   </si>
   <si>
     <t>1. Choose change password
@@ -980,16 +473,6 @@
     <t>1. Choose Sign Up
 2. Fill info
 3. Confirm sign up</t>
-  </si>
-  <si>
-    <t>Account login to web page
-Database have 40 records in each list: the available list, the published list, the unpublished list, the deleted list</t>
-  </si>
-  <si>
-    <t>1. Choose the unanswered questions list
-2. Choose the question
-3. Edit the answer
-4. Confirm send</t>
   </si>
   <si>
     <t>1. Choose dictionary
@@ -1003,36 +486,6 @@
 9. Check question's info</t>
   </si>
   <si>
-    <t>1. Choose the answered questions list
-2. Choose the question
-3. Confirm delete</t>
-  </si>
-  <si>
-    <t>Account login to web page
-Database have 20 records in each list: the unanswered questions list, the saved questions list, the answered questions list</t>
-  </si>
-  <si>
-    <t>Account login to web page
-Database have 20 records in each list: the answered questions list</t>
-  </si>
-  <si>
-    <t>Account login to web page
-Database have 20 records in each list: the available list, the published list, the unpublished list, the deleted list</t>
-  </si>
-  <si>
-    <t>Account login to web page
-Database have 20 records in each list: the deleted questions list</t>
-  </si>
-  <si>
-    <t>Account login to web page
-The question is saved at the unanswered questions list</t>
-  </si>
-  <si>
-    <t>1. Choose the answered questions list
-2. Choose the question
-3. Confirm add</t>
-  </si>
-  <si>
     <t>The question is moved to the available list of dictionary
 Displays the successful notification</t>
   </si>
@@ -1047,15 +500,6 @@
 Displays the successful notification</t>
   </si>
   <si>
-    <t>The question is moved to the deleted questions list
-Displays the successful notification</t>
-  </si>
-  <si>
-    <t>1. Choose the deleted questions list
-2. Choose the question
-3. Confirm restore</t>
-  </si>
-  <si>
     <t>The question is moved to the previous list
 Displays the successful notification</t>
   </si>
@@ -1063,9 +507,6 @@
     <t>Displays the successful notification</t>
   </si>
   <si>
-    <t>User can't search the question on Display Dictionary Tool</t>
-  </si>
-  <si>
     <t>Account login to web page
 Account have admin permission</t>
   </si>
@@ -1076,25 +517,10 @@
     <t>1. Choose create index</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Choose the answered questions list
-2. Choose the question
-3. Add to dictionary
-4.Choose dictionary
-5. Choose the available list
-6. Choose the question
-7. Publish the question
-8. Go to Display Dictionary Tool
-9. Search the questions just publish
-</t>
-  </si>
-  <si>
     <t>Display the question</t>
   </si>
   <si>
     <t>Update index</t>
-  </si>
-  <si>
-    <t>Search on Dictionary Management Tool</t>
   </si>
   <si>
     <t>1. Choose search position
@@ -1113,28 +539,12 @@
     <t>View question's content</t>
   </si>
   <si>
-    <t>Account login to web page
-Database have records in each list: the unanswered questions list, the saved questions list, the answered questions list, the deleted questions list</t>
-  </si>
-  <si>
     <t>1. Choose the list need to view
 2. Choose the question
 3. Check question's info</t>
   </si>
   <si>
-    <t>Display the question list on Display Dictionary Tool</t>
-  </si>
-  <si>
-    <t>Database have 10 records in the published list</t>
-  </si>
-  <si>
-    <t>1. Go to Display Dictionary Tool</t>
-  </si>
-  <si>
     <t>The questions list is displayed with 10 records</t>
-  </si>
-  <si>
-    <t>Search on Display Dictionary Tool</t>
   </si>
   <si>
     <t>1. Choose create the question
@@ -1143,24 +553,13 @@
 4. Choose send</t>
   </si>
   <si>
-    <t>Create question on Dictionary Management Tool</t>
-  </si>
-  <si>
     <t>1. Choose create question
 2. Fill question info
 3. Fill answer info
 4. Choose Save</t>
   </si>
   <si>
-    <t>Question's info is saved in database. The unanswered questions list is updated</t>
-  </si>
-  <si>
     <t>Update dictionary</t>
-  </si>
-  <si>
-    <t>1. Go to Display Dictionary Tool
-2. Publish the questions on Dictionary Management Tool
-3. Refresh Display Dictionary Tool</t>
   </si>
   <si>
     <t>The list is updated. Display the questions is just published</t>
@@ -1176,46 +575,16 @@
   </si>
   <si>
     <t>Account login to web page
-Database have 10 records in each list: the unanswered questions list, the saved questions list, the answered questions list</t>
-  </si>
-  <si>
-    <t>Questions is moved to the deleted questions list. Displays the successful notification</t>
-  </si>
-  <si>
-    <t>Add multiple questions in dictionary</t>
-  </si>
-  <si>
-    <t>Account login to web page
 Database have 10 records in the available list</t>
   </si>
   <si>
     <t>Xem Viet Ver</t>
   </si>
   <si>
-    <t>1. Choose dictionary
-2. Choose the available list
-3. Chọn questions
-4. Choose add
-5. Confirm add</t>
-  </si>
-  <si>
     <t>View the lists in dictionary</t>
   </si>
   <si>
-    <t>1. Choose dictionary
-2. Choose each list: the available list, the published list, the unpublished list, the deleted list</t>
-  </si>
-  <si>
     <t>The questions list is displayed associated with user's choice</t>
-  </si>
-  <si>
-    <t>Setting items display in the list (Dictionary Management Tool)</t>
-  </si>
-  <si>
-    <t>1. Choose the list (the unanswered questions list, the saved questions list, the answered questions list, the deleted questions list)
-2. Choose setting
-3. Input items display and pages display
-4. Confirm setting</t>
   </si>
   <si>
     <t>The item of list, the page display change according to setting</t>
@@ -1268,13 +637,6 @@
     <t>2. Login</t>
   </si>
   <si>
-    <t>Display main form
-Default display the unanswered questions list</t>
-  </si>
-  <si>
-    <t>3. Choose 1 question in the unanswered questions list</t>
-  </si>
-  <si>
     <t>Display question's detail and editor area</t>
   </si>
   <si>
@@ -1284,9 +646,6 @@
     <t>5. Login</t>
   </si>
   <si>
-    <t>6. Choose same question with user1 in the unanswered questions list</t>
-  </si>
-  <si>
     <t>7. Edit the answer</t>
   </si>
   <si>
@@ -1297,12 +656,6 @@
   </si>
   <si>
     <t>10. Choose send</t>
-  </si>
-  <si>
-    <t>The answer is saved into database
-The answer is sent to sender
-The questions is moved to the answered questions list
-Displays the successful notification</t>
   </si>
   <si>
     <t>Display notification: question was sent by user1</t>
@@ -1331,9 +684,6 @@
     <t>Account admin1</t>
   </si>
   <si>
-    <t>6. Choose same question with admin in the unanswered questions list</t>
-  </si>
-  <si>
     <t>8. Choose save</t>
   </si>
   <si>
@@ -1354,9 +704,6 @@
     <t>Parallel processing two accounts have admin - user permission save the question at the same time</t>
   </si>
   <si>
-    <t>6. Choose same question with user in the unanswered questions list</t>
-  </si>
-  <si>
     <t>11. Choose the save questions list</t>
   </si>
   <si>
@@ -1414,21 +761,10 @@
     <t>10. Choose publish</t>
   </si>
   <si>
-    <t>The questions is moved to the publish list
-Display the question on Display Dictionary Tool
-Displays the successful notification</t>
-  </si>
-  <si>
     <t>Displays notification: The question is published by admin2</t>
   </si>
   <si>
     <t>Processing user permission</t>
-  </si>
-  <si>
-    <t>5. Choose the question from the published list</t>
-  </si>
-  <si>
-    <t>6. Choose the question from the unpublished list</t>
   </si>
   <si>
     <t>7. Choose the question from the deleted list</t>
@@ -1491,6 +827,348 @@
   </si>
   <si>
     <t>7. Paste the link</t>
+  </si>
+  <si>
+    <t>Project: Admission system - DeadlineTeam - Mentor: Phung Bui</t>
+  </si>
+  <si>
+    <t>Login dictionary management application</t>
+  </si>
+  <si>
+    <t>Account exists in database</t>
+  </si>
+  <si>
+    <t>Display application</t>
+  </si>
+  <si>
+    <t>Display the question list</t>
+  </si>
+  <si>
+    <t>Account login to application
+Database have 40 records in each list: the unanswered questions list, the saved questions list, the answered questions list, the deleted questions list</t>
+  </si>
+  <si>
+    <t>Account login to web page
+Question is saved at the list-unanswers</t>
+  </si>
+  <si>
+    <t>1. Choose the list-unanswers
+2. Choose the question
+3. Edit the answer
+4. Confirm send</t>
+  </si>
+  <si>
+    <t>Account login to web page
+The question is saved at the list-unanswers</t>
+  </si>
+  <si>
+    <t>Question's info is saved in database. the list-unanswers is updated</t>
+  </si>
+  <si>
+    <t>Display main form
+Default display the list-unanswers</t>
+  </si>
+  <si>
+    <t>3. Choose 1 question in the list-unanswers</t>
+  </si>
+  <si>
+    <t>6. Choose same question with user1 in the list-unanswers</t>
+  </si>
+  <si>
+    <t>6. Choose same question with admin in the list-unanswers</t>
+  </si>
+  <si>
+    <t>6. Choose same question with user in the list-unanswers</t>
+  </si>
+  <si>
+    <t>1. Choose the list-tempsave
+2. Choose the question
+3. Edit the answer
+4. Confirm save</t>
+  </si>
+  <si>
+    <t>The question is moved to the list-tempsave
+Displays the successful notification</t>
+  </si>
+  <si>
+    <t>Account login to web page
+Database have 20 records in each list: the list-saved</t>
+  </si>
+  <si>
+    <t>1. Choose the list-saved
+2. Choose the question
+3. Confirm add</t>
+  </si>
+  <si>
+    <t>Account login to web page
+Database have 20 records in each list: the list-unanswers, the list-tempsave, the list-saved</t>
+  </si>
+  <si>
+    <t>1. Choose the list-saved
+2. Choose the question
+3. Confirm delete</t>
+  </si>
+  <si>
+    <t>Account login to web page
+Database have 10 records in each list: the list-unanswers, the list-tempsave, the list-saved</t>
+  </si>
+  <si>
+    <t>The answer is saved into database
+The answer is sent to sender
+The questions is moved to the list-saved
+Displays the successful notification</t>
+  </si>
+  <si>
+    <t>Account login to web page
+Database have 40 records in each list: the list-unanswers, the list-tempsave, the list-saved, the list-deleted</t>
+  </si>
+  <si>
+    <t>1. Choose the list-unanswers
+2. Check question's info
+3. Choose the list-tempsave
+4. Check question's info
+5. Choose the list-saved
+6. Check question's info
+7. Choose the list-deleted
+8. Check question's info</t>
+  </si>
+  <si>
+    <t>The question is moved to the list-deleted
+Displays the successful notification</t>
+  </si>
+  <si>
+    <t>Account login to web page
+Database have 20 records in each list: the list-deleted</t>
+  </si>
+  <si>
+    <t>1. Choose the list-deleted
+2. Choose the question
+3. Confirm restore</t>
+  </si>
+  <si>
+    <t>Account login to web page
+Database have records in each list: the list-unanswers, the list-tempsave, the list-saved, the list-deleted</t>
+  </si>
+  <si>
+    <t>Questions is moved to the list-deleted. Displays the successful notification</t>
+  </si>
+  <si>
+    <t>1. Choose the list (the list-unanswers, the list-tempsave, the list-saved, the list-deleted)
+2. Choose setting
+3. Input items display and pages display
+4. Confirm setting</t>
+  </si>
+  <si>
+    <t>Account login to application
+Question is saved at the list-unanswers</t>
+  </si>
+  <si>
+    <t>Account login to application
+The question is saved at the list-unanswers</t>
+  </si>
+  <si>
+    <t>Account login to application
+Database have 40 records in each list: the available list, the published list, the unpublished list, the deleted list</t>
+  </si>
+  <si>
+    <t>Account login to application
+Database have 20 records in each list: the list-saved</t>
+  </si>
+  <si>
+    <t>Account login to application
+Database have 20 records in each list: the available list, the published list, the unpublished list, the deleted list</t>
+  </si>
+  <si>
+    <t>Account login to application
+Database have 20 records in each list: the list-unanswers, the list-tempsave, the list-saved</t>
+  </si>
+  <si>
+    <t>Account login to application
+Database have 20 records in each list: the list-deleted</t>
+  </si>
+  <si>
+    <t>Create the question in Display Dictionary system</t>
+  </si>
+  <si>
+    <t>User can't search the question on Display Dictionary system</t>
+  </si>
+  <si>
+    <t>Search on Dictionary Management system</t>
+  </si>
+  <si>
+    <t>Display the question list on Display Dictionary system</t>
+  </si>
+  <si>
+    <t>Search on Display Dictionary system</t>
+  </si>
+  <si>
+    <t>Create question on Dictionary Management system</t>
+  </si>
+  <si>
+    <t>Setting items display in the list (Dictionary Management system)</t>
+  </si>
+  <si>
+    <t>The questions is moved to the publish list
+Display the question on Display Dictionary system
+Displays the successful notification</t>
+  </si>
+  <si>
+    <t>Insert multiple questions in dictionary</t>
+  </si>
+  <si>
+    <t>1. Choose dictionary
+2. Choose the available list
+3. Chọn questions
+4. Choose Insert
+5. Confirm Insert</t>
+  </si>
+  <si>
+    <t>Insert in dictionary</t>
+  </si>
+  <si>
+    <t>1. Choose the list-saved
+2. Choose the question
+3. Confirm Insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Choose the list-saved
+2. Choose the question
+3. Insert to dictionary
+4.Choose dictionary
+5. Choose the available list
+6. Choose the question
+7. Publish the question
+8. Go to Display Dictionary system
+9. Search the questions just publish
+</t>
+  </si>
+  <si>
+    <t>Database have 10 records in the current list</t>
+  </si>
+  <si>
+    <t>5. Choose the question from the current list</t>
+  </si>
+  <si>
+    <t>Account login to web page
+Database have 40 records in each list: the available list, the current list, the drop list, the deleted list</t>
+  </si>
+  <si>
+    <t>Account login to web page
+Database have 20 records in each list: the available list, the current list, the drop list, the deleted list</t>
+  </si>
+  <si>
+    <t>The question is moved to the drop list of dictionary
+Displays the successful notification</t>
+  </si>
+  <si>
+    <t>1. Choose dictionary
+2. Choose each list: the available list, the current list, the drop list, the deleted list</t>
+  </si>
+  <si>
+    <t>6. Choose the question from the drop list</t>
+  </si>
+  <si>
+    <t>1. Choose dictionary
+2. Choose the available list
+3. Check question's info
+4. Choose the current list
+5. Check question's info
+6. Choose the drop lis
+7. Check question's info
+8. Choose the deleted list
+9. Check question's info</t>
+  </si>
+  <si>
+    <t>1. Run Display Dictionary system</t>
+  </si>
+  <si>
+    <t>1. Run Display Dictionary system
+2. Publish the questions on Dictionary Management system
+3. Refresh Display Dictionary system</t>
+  </si>
+  <si>
+    <t>Account login to application
+Database have the question that 'tuyển sinh' in content</t>
+  </si>
+  <si>
+    <t>Account login to application
+Database have records in each list: the list-unanswers, the list-tempsave, the list-saved, the list-deleted</t>
+  </si>
+  <si>
+    <t>Account login to application</t>
+  </si>
+  <si>
+    <t>Use android device # 1</t>
+  </si>
+  <si>
+    <t>Search on Management system (android)</t>
+  </si>
+  <si>
+    <t>Create the question in Display system (android)</t>
+  </si>
+  <si>
+    <t>Search on Display system (android)</t>
+  </si>
+  <si>
+    <t>Create question on Management system (android)</t>
+  </si>
+  <si>
+    <t>1. Display system (android)
+2. Publish the questions on Management system (android)
+3. Refresh Display system (android)</t>
+  </si>
+  <si>
+    <t>1. Run Display system (android)</t>
+  </si>
+  <si>
+    <t>1. Run Management system (android)
+2. Login</t>
+  </si>
+  <si>
+    <t>Use android device # 2</t>
+  </si>
+  <si>
+    <t>4. Run Management system (android)</t>
+  </si>
+  <si>
+    <t>1. Run Management system (android)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account:: admin1
+</t>
+  </si>
+  <si>
+    <t>Account: admin2</t>
+  </si>
+  <si>
+    <t>5. Run Management system (android)</t>
+  </si>
+  <si>
+    <t>Checking to connect internet</t>
+  </si>
+  <si>
+    <t>2. Disconnect internet on android device</t>
+  </si>
+  <si>
+    <t>Display main form</t>
+  </si>
+  <si>
+    <t>Display notification: Disconnect Internet
+Give 2 options for user:
+'Có' to connect internet
+'Không' to don't connect internet</t>
+  </si>
+  <si>
+    <t>Display empty question list</t>
+  </si>
+  <si>
+    <t>4. Choose "Có"</t>
+  </si>
+  <si>
+    <t>3. Choose "Không"</t>
+  </si>
+  <si>
+    <t>Go to setting form to connect internet</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1971,6 +1649,24 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1980,31 +1676,64 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2017,55 +1746,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2444,7 +2131,7 @@
   <sheetData>
     <row r="3" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2453,13 +2140,13 @@
     </row>
     <row r="4" spans="2:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2486,11 +2173,11 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
+      <c r="B8" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -2503,7 +2190,7 @@
     </row>
     <row r="10" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2512,13 +2199,13 @@
     </row>
     <row r="11" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2553,7 +2240,7 @@
     </row>
     <row r="16" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2562,19 +2249,19 @@
     </row>
     <row r="17" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2584,10 +2271,10 @@
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="9" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2597,10 +2284,10 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="9" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2610,10 +2297,10 @@
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="34" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2623,10 +2310,10 @@
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2642,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,30 +2344,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="A1" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
@@ -2692,7 +2379,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>245</v>
+        <v>117</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -2702,7 +2389,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -2740,1576 +2427,1575 @@
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>246</v>
+        <v>118</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>249</v>
+        <v>121</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>251</v>
+        <v>123</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="D14" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="E14" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>280</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>285</v>
+        <v>142</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="D18" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>311</v>
+        <v>158</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>266</v>
+        <v>135</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>295</v>
+        <v>149</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>298</v>
+        <v>151</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>297</v>
+        <v>150</v>
       </c>
       <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>301</v>
+        <v>153</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>305</v>
+        <v>156</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>356</v>
+        <v>189</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="63"/>
+      <c r="A25" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="63"/>
+      <c r="A26" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="63"/>
+      <c r="A27" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>309</v>
+        <v>157</v>
       </c>
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>301</v>
+        <v>153</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="63"/>
+      <c r="A30" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>313</v>
+        <v>159</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>317</v>
+        <v>161</v>
       </c>
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>318</v>
+        <v>162</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>323</v>
+        <v>164</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>285</v>
+        <v>142</v>
       </c>
       <c r="F34" s="16"/>
-      <c r="G34" s="66" t="s">
-        <v>324</v>
+      <c r="G34" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>326</v>
+        <v>166</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>331</v>
+        <v>168</v>
       </c>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>333</v>
+        <v>170</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>334</v>
+        <v>171</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>335</v>
+        <v>172</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="67" t="s">
-        <v>336</v>
+      <c r="A39" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>173</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="68"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="17" t="s">
-        <v>338</v>
+        <v>175</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="68"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="68"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="17" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="68"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="17" t="s">
-        <v>340</v>
+        <v>177</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="68"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17" t="s">
-        <v>349</v>
+        <v>252</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="G44" s="70" t="s">
-        <v>324</v>
+        <v>103</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="68"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="17" t="s">
-        <v>359</v>
+        <v>192</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>350</v>
+        <v>184</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="68"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="17" t="s">
-        <v>360</v>
+        <v>193</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>351</v>
+        <v>185</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="29"/>
     </row>
-    <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="68"/>
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="18"/>
       <c r="D47" s="17" t="s">
-        <v>352</v>
+        <v>186</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>354</v>
+        <v>262</v>
       </c>
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="69"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="17" t="s">
-        <v>359</v>
+        <v>192</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>353</v>
+        <v>187</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>355</v>
+        <v>188</v>
       </c>
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="71" t="s">
-        <v>357</v>
+      <c r="A49" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>190</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="24" t="s">
-        <v>358</v>
+        <v>191</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="72"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="25"/>
       <c r="D51" s="24" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="24" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="24" t="s">
-        <v>340</v>
+        <v>177</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="72"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="25"/>
       <c r="D54" s="24" t="s">
-        <v>362</v>
+        <v>253</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="F54" s="74" t="s">
-        <v>198</v>
+        <v>181</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="24" t="s">
-        <v>359</v>
+        <v>192</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>350</v>
+        <v>184</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="64"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24" t="s">
-        <v>363</v>
+        <v>195</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>364</v>
+        <v>196</v>
       </c>
       <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="72"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="24" t="s">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="E57" s="25"/>
       <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="72"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24" t="s">
-        <v>366</v>
+        <v>198</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>364</v>
+        <v>196</v>
       </c>
       <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="72"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="24" t="s">
-        <v>359</v>
+        <v>192</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>370</v>
+        <v>201</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>367</v>
+        <v>199</v>
       </c>
       <c r="F59" s="30"/>
     </row>
     <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="67" t="s">
-        <v>368</v>
+      <c r="A60" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>200</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="68"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="17" t="s">
-        <v>340</v>
+        <v>177</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="68"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="18"/>
       <c r="D62" s="17" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="68"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="17" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="68"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="17" t="s">
-        <v>358</v>
+        <v>191</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="68"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="18"/>
       <c r="D65" s="17" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="68"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="17" t="s">
-        <v>359</v>
+        <v>192</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>350</v>
+        <v>184</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="68"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17" t="s">
-        <v>363</v>
+        <v>195</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>364</v>
+        <v>196</v>
       </c>
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="68"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="17" t="s">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>371</v>
+        <v>202</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="68"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
-        <v>372</v>
+        <v>203</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>374</v>
+        <v>205</v>
       </c>
       <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="69"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="17" t="s">
-        <v>359</v>
+        <v>192</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>373</v>
+        <v>204</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>367</v>
+        <v>199</v>
       </c>
       <c r="F70" s="29"/>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="71" t="s">
-        <v>375</v>
+      <c r="A71" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="63" t="s">
+        <v>206</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
-      <c r="B72" s="72"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="64"/>
       <c r="C72" s="16" t="s">
-        <v>358</v>
+        <v>191</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
-      <c r="B73" s="72"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="25"/>
       <c r="D73" s="24" t="s">
-        <v>378</v>
+        <v>209</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>379</v>
+        <v>210</v>
       </c>
       <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
-      <c r="B74" s="72"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="64"/>
       <c r="C74" s="38"/>
       <c r="D74" s="16" t="s">
-        <v>380</v>
+        <v>211</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
-      <c r="B75" s="72"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="16" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>381</v>
+        <v>212</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F75" s="30"/>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="53"/>
-      <c r="B76" s="72"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="16" t="s">
-        <v>376</v>
+        <v>207</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>382</v>
+        <v>213</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F76" s="30"/>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
-      <c r="B77" s="72"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="38"/>
       <c r="D77" s="16" t="s">
-        <v>383</v>
+        <v>214</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>379</v>
+        <v>210</v>
       </c>
       <c r="F77" s="30"/>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="53"/>
-      <c r="B78" s="72"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="38"/>
       <c r="D78" s="16" t="s">
-        <v>384</v>
+        <v>215</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="F78" s="30"/>
     </row>
     <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
-      <c r="B79" s="72"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="64"/>
       <c r="C79" s="16" t="s">
-        <v>377</v>
+        <v>208</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>385</v>
+        <v>216</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>387</v>
+        <v>285</v>
       </c>
       <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="73"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="65"/>
       <c r="C80" s="16" t="s">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>386</v>
+        <v>217</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>388</v>
+        <v>218</v>
       </c>
       <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="B81" s="75" t="s">
-        <v>389</v>
+      <c r="A81" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="67" t="s">
+        <v>219</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="75"/>
+      <c r="A82" s="66"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="17" t="s">
-        <v>340</v>
+        <v>177</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="B83" s="75"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="29"/>
       <c r="D83" s="17" t="s">
-        <v>378</v>
+        <v>209</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>379</v>
+        <v>210</v>
       </c>
       <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="75"/>
+      <c r="A84" s="66"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="29"/>
       <c r="D84" s="17" t="s">
-        <v>380</v>
+        <v>211</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>393</v>
+        <v>221</v>
       </c>
       <c r="F84" s="29"/>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="B85" s="75"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="29"/>
       <c r="D85" s="17" t="s">
-        <v>390</v>
+        <v>292</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>394</v>
+        <v>222</v>
       </c>
       <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
-      <c r="B86" s="75"/>
+      <c r="A86" s="66"/>
+      <c r="B86" s="67"/>
       <c r="C86" s="29"/>
       <c r="D86" s="17" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>394</v>
+        <v>222</v>
       </c>
       <c r="F86" s="29"/>
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
-      <c r="B87" s="75"/>
+      <c r="A87" s="66"/>
+      <c r="B87" s="67"/>
       <c r="C87" s="29"/>
       <c r="D87" s="17" t="s">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>394</v>
+        <v>222</v>
       </c>
       <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="B88" s="76" t="s">
-        <v>395</v>
+      <c r="A88" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="69" t="s">
+        <v>223</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F88" s="39"/>
     </row>
     <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
-      <c r="B89" s="76"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="69"/>
       <c r="C89" s="16" t="s">
-        <v>358</v>
+        <v>191</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F89" s="39"/>
     </row>
     <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
-      <c r="B90" s="76"/>
+      <c r="A90" s="68"/>
+      <c r="B90" s="69"/>
       <c r="C90" s="39"/>
       <c r="D90" s="16" t="s">
-        <v>378</v>
+        <v>209</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>379</v>
+        <v>210</v>
       </c>
       <c r="F90" s="39"/>
     </row>
     <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
-      <c r="B91" s="76"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="69"/>
       <c r="C91" s="39"/>
       <c r="D91" s="16" t="s">
-        <v>380</v>
+        <v>211</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>396</v>
+        <v>224</v>
       </c>
       <c r="F91" s="39"/>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
-      <c r="B92" s="76"/>
+      <c r="A92" s="68"/>
+      <c r="B92" s="69"/>
       <c r="C92" s="39"/>
       <c r="D92" s="16" t="s">
-        <v>390</v>
+        <v>292</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>397</v>
+        <v>225</v>
       </c>
       <c r="F92" s="39"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
-      <c r="B93" s="76"/>
+      <c r="A93" s="68"/>
+      <c r="B93" s="69"/>
       <c r="C93" s="39"/>
       <c r="D93" s="16" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>396</v>
+        <v>224</v>
       </c>
       <c r="F93" s="39"/>
     </row>
     <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
-      <c r="B94" s="76"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="69"/>
       <c r="C94" s="39"/>
       <c r="D94" s="16" t="s">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>398</v>
+        <v>226</v>
       </c>
       <c r="F94" s="39"/>
     </row>
     <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="B95" s="67" t="s">
-        <v>399</v>
+      <c r="A95" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F95" s="29"/>
     </row>
     <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="50"/>
-      <c r="B96" s="68"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="55"/>
       <c r="C96" s="17" t="s">
-        <v>376</v>
+        <v>207</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F96" s="29"/>
     </row>
     <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="50"/>
-      <c r="B97" s="68"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="55"/>
       <c r="C97" s="18"/>
       <c r="D97" s="17" t="s">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>401</v>
+        <v>229</v>
       </c>
       <c r="F97" s="29"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="50"/>
-      <c r="B98" s="68"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="55"/>
       <c r="C98" s="18"/>
       <c r="D98" s="17" t="s">
-        <v>402</v>
+        <v>230</v>
       </c>
       <c r="E98" s="17"/>
       <c r="F98" s="29"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
-      <c r="B99" s="69"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="56"/>
       <c r="C99" s="17" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>403</v>
+        <v>231</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F99" s="29"/>
     </row>
     <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="B100" s="71" t="s">
-        <v>404</v>
+      <c r="A100" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="63" t="s">
+        <v>232</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
-      <c r="B101" s="72"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="64"/>
       <c r="C101" s="16" t="s">
-        <v>358</v>
+        <v>191</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F101" s="30"/>
     </row>
     <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="53"/>
-      <c r="B102" s="72"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="64"/>
       <c r="C102" s="38"/>
       <c r="D102" s="16" t="s">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>401</v>
+        <v>229</v>
       </c>
       <c r="F102" s="30"/>
     </row>
     <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
-      <c r="B103" s="72"/>
+      <c r="A103" s="61"/>
+      <c r="B103" s="64"/>
       <c r="C103" s="16" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
-      <c r="B104" s="72"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="64"/>
       <c r="C104" s="16" t="s">
-        <v>340</v>
+        <v>177</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F104" s="30"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="B105" s="72"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="64"/>
       <c r="C105" s="38" t="s">
-        <v>406</v>
+        <v>234</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>410</v>
+        <v>238</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="30"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="54"/>
-      <c r="B106" s="73"/>
+      <c r="A106" s="62"/>
+      <c r="B106" s="65"/>
       <c r="C106" s="16" t="s">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>411</v>
+        <v>239</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>407</v>
+        <v>235</v>
       </c>
       <c r="F106" s="30"/>
     </row>
     <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="B107" s="67" t="s">
-        <v>404</v>
+      <c r="A107" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="54" t="s">
+        <v>232</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="50"/>
-      <c r="B108" s="68"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="55"/>
       <c r="C108" s="17" t="s">
-        <v>358</v>
+        <v>191</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F108" s="29"/>
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="50"/>
-      <c r="B109" s="68"/>
+      <c r="A109" s="58"/>
+      <c r="B109" s="55"/>
       <c r="C109" s="18"/>
       <c r="D109" s="17" t="s">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>401</v>
+        <v>229</v>
       </c>
       <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="50"/>
-      <c r="B110" s="68"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="55"/>
       <c r="C110" s="17" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F110" s="29"/>
     </row>
     <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="50"/>
-      <c r="B111" s="68"/>
+      <c r="A111" s="58"/>
+      <c r="B111" s="55"/>
       <c r="C111" s="17" t="s">
-        <v>376</v>
+        <v>207</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F111" s="29"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="50"/>
-      <c r="B112" s="68"/>
+      <c r="A112" s="58"/>
+      <c r="B112" s="55"/>
       <c r="C112" s="18" t="s">
-        <v>406</v>
+        <v>234</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>410</v>
+        <v>238</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="29"/>
     </row>
     <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="51"/>
-      <c r="B113" s="69"/>
+      <c r="A113" s="59"/>
+      <c r="B113" s="56"/>
       <c r="C113" s="17" t="s">
-        <v>409</v>
+        <v>237</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>411</v>
+        <v>239</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>408</v>
+        <v>236</v>
       </c>
       <c r="F113" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="B100:B106"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="B49:B59"/>
     <mergeCell ref="B60:B70"/>
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="A81:A87"/>
@@ -4318,11 +4004,12 @@
     <mergeCell ref="B88:B94"/>
     <mergeCell ref="A71:A80"/>
     <mergeCell ref="B71:B80"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="A49:A59"/>
-    <mergeCell ref="B49:B59"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="B100:B106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="B107:B113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4332,10 +4019,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4350,30 +4037,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="A1" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
@@ -4385,7 +4072,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -4395,7 +4082,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -4425,1185 +4112,1201 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="20"/>
+        <v>241</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>242</v>
+      </c>
       <c r="D8" s="17" t="s">
-        <v>155</v>
+        <v>311</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="45"/>
+    </row>
+    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="45"/>
+    </row>
+    <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="45"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="45"/>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="75"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="D30" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="39"/>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="E30" s="16" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="F30" s="39"/>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="F31" s="39"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="75"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="16" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>160</v>
+        <v>313</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="F32" s="39"/>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="16" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="38"/>
       <c r="D34" s="16" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F34" s="39"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="38"/>
+        <v>192</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>184</v>
+      </c>
       <c r="E35" s="38"/>
       <c r="F35" s="39"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="16" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="39"/>
     </row>
-    <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="38"/>
+    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="75"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="76"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E37" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="F37" s="39"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="D38" s="16" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F38" s="39"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>75</v>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>190</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="17" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="18"/>
       <c r="D41" s="17" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="F41" s="29"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="58"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="17" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="17" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="18"/>
+        <v>192</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="E45" s="18"/>
       <c r="F45" s="29"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="18"/>
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="58"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>196</v>
+      </c>
       <c r="F46" s="29"/>
     </row>
-    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="17" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="58"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="59"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="F49" s="29"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="F47" s="29"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="18" t="s">
+      <c r="C50" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" s="39"/>
+    </row>
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="75"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F51" s="39"/>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="75"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52" s="39"/>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="75"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="39"/>
+    </row>
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="75"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" s="39"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="75"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" s="39"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="75"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="38"/>
+      <c r="F56" s="39"/>
+    </row>
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="75"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="29"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="39"/>
-    </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="39"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="16" t="s">
+      <c r="E57" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="E51" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="39"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="39"/>
-    </row>
-    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="16" t="s">
+      <c r="F57" s="39"/>
+    </row>
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="75"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D53" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="39"/>
-    </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" s="16" t="s">
+      <c r="E58" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="39"/>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="75"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F54" s="39"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="39"/>
-    </row>
-    <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16" t="s">
+      <c r="E59" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="39"/>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="76"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="39"/>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F57" s="39"/>
-    </row>
-    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="39"/>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="F59" s="39"/>
-    </row>
-    <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="50"/>
+      <c r="F60" s="39"/>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>206</v>
+      </c>
       <c r="C61" s="17" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>67</v>
+        <v>314</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="F61" s="29"/>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="18"/>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="17" t="s">
+        <v>191</v>
+      </c>
       <c r="D62" s="17" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="18"/>
       <c r="D63" s="17" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F63" s="29"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="17" t="s">
-        <v>161</v>
-      </c>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="58"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="17" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="F64" s="29"/>
     </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="58"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="17" t="s">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="F65" s="29"/>
     </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="18"/>
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="58"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="17" t="s">
+        <v>207</v>
+      </c>
       <c r="D66" s="17" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="18"/>
       <c r="D67" s="17" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F67" s="29"/>
     </row>
-    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="17" t="s">
-        <v>208</v>
-      </c>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="58"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="18"/>
       <c r="D68" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>87</v>
+        <v>215</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="F68" s="29"/>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="51"/>
+    <row r="69" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="58"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="17" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>211</v>
+        <v>216</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="F69" s="29"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="56" t="s">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="59"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E70" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="F70" s="29"/>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="C70" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F70" s="39"/>
-    </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="38" t="s">
-        <v>70</v>
+      <c r="C71" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>67</v>
+        <v>314</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="F71" s="39"/>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="39"/>
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="68"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="38" t="s">
+        <v>177</v>
+      </c>
       <c r="D72" s="16" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="F72" s="39"/>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
-      <c r="B73" s="56"/>
+      <c r="A73" s="68"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="39"/>
       <c r="D73" s="16" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F73" s="39"/>
     </row>
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
-      <c r="B74" s="56"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="69"/>
       <c r="C74" s="39"/>
       <c r="D74" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F74" s="39"/>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
-      <c r="B75" s="56"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="69"/>
       <c r="C75" s="39"/>
       <c r="D75" s="16" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F75" s="39"/>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
-      <c r="B76" s="56"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="69"/>
       <c r="C76" s="39"/>
       <c r="D76" s="16" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F76" s="39"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="55" t="s">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="68"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B77" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F77" s="29"/>
-    </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="18" t="s">
-        <v>70</v>
+      <c r="E77" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F77" s="39"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>67</v>
+        <v>314</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="F78" s="29"/>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="29"/>
+    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="66"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="18" t="s">
+        <v>191</v>
+      </c>
       <c r="D79" s="17" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
-      <c r="B80" s="55"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="29"/>
       <c r="D80" s="17" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
-      <c r="B81" s="55"/>
+      <c r="A81" s="66"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="29"/>
       <c r="D81" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="55"/>
+      <c r="A82" s="66"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="29"/>
       <c r="D82" s="17" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="B83" s="55"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="29"/>
       <c r="D83" s="17" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F83" s="29"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="B84" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F84" s="39"/>
-    </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
-      <c r="B85" s="56"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="E85" s="38" t="s">
-        <v>241</v>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="66"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F84" s="29"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="F85" s="39"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
-      <c r="B86" s="56"/>
+    <row r="86" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="72"/>
+      <c r="B86" s="69"/>
       <c r="C86" s="39"/>
-      <c r="D86" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>232</v>
+      <c r="D86" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>321</v>
       </c>
       <c r="F86" s="39"/>
     </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
-      <c r="B87" s="56"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="72"/>
+      <c r="B87" s="69"/>
       <c r="C87" s="39"/>
       <c r="D87" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>235</v>
+        <v>324</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="F87" s="39"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="73"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="F88" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
     <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="A61:A70"/>
+    <mergeCell ref="B61:B70"/>
     <mergeCell ref="A29:A38"/>
     <mergeCell ref="B29:B38"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="B49:B59"/>
-    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="A39:A49"/>
+    <mergeCell ref="B39:B49"/>
+    <mergeCell ref="B50:B60"/>
+    <mergeCell ref="A50:A60"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B85:B88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
